--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45840</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45897.34474537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45834.48988425926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45895.58626157408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45853.78947916667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>45574.69194444444</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45600.58561342592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45511.92913194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45523.60096064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45587.53958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45922.36203703703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45289</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45849.59368055555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45826.55575231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45981.55208333334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>45981.55298611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45622.61625</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45587.38496527778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45609.62820601852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45531.41425925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45918.47039351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45544.70700231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45981.54915509259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45985.42745370371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45513.68399305556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>45639.56111111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>45583.37048611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45889.40774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45889.41836805556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45622.33753472222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>45832.65657407408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45520.57005787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>45960.34290509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45946</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>46051.36436342593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>46010.52430555555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45432.60155092592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45616.4488425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45621.67853009259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>44830.92861111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44462.53556712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44602.92150462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44370.62300925926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44873.92929398148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44873</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44546.4796875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44466</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44742.92701388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44615</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>44869</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44838.92716435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44476.49274305555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44844</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44286.92057870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44307.91818287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44237</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44872.92878472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44879.82162037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44487.42274305555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44470</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44376</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44453</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44818.56847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44869</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44445.92101851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44872</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>45625.49637731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44608</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45537.36001157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45173.69394675926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45699.3434837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44435</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45327</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45162</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45462</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>45516.83846064815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45478</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>45569.44123842593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45068.92681712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45604</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45016</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45574</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45336.93773148148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45336.93798611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45569.53740740741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>45219.41938657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>45085.92733796296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>45085.92752314815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>45736</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>45621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>45644</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>45457.65552083333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>45558.57508101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45748.65944444444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>45672.64280092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>45743</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>45580.62873842593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>45184</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>45583.34958333334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44929.92520833333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45573.37309027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45798.65332175926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45399.41329861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45673.64859953704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45799.55508101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44893.92833333334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45748</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45799.55607638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45799.55739583333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>45799.51130787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>45209</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44999</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>45511.92854166667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45803.61543981481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45183.92153935185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>45166</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>45884.44443287037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>45240</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>45887.56513888889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>45524.70659722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44482.9227662037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>45161</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45888.63672453703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45147</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45537.52844907407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45888.63680555556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45485.37736111111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45750.65672453704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45891</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45441</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>45891.33292824074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45812.41510416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45890.68950231482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45891.4024537037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>45462.53011574074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>45517.67284722222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44904.44421296296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>45594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45895.36784722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>45895.44799768519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45587.37518518518</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45895.33680555555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45604.42872685185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45895.61975694444</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45894.49003472222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440.9255324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45896.65674768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45603</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45896.63652777778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45901.40425925926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45898.58579861111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45901.38766203704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45678.45821759259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45820.65319444444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45820</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45903.42737268518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45821.38677083333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>45902.36511574074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44893.92828703704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45898</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45820</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45905.33974537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45544.62537037037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45905.54627314815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45905.56924768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45824.58925925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>45824.60665509259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>45208</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>45824.51351851852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>45908.46253472222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>45174.92260416667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>45824.7070949074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>45908.44136574074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45107</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45341</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45912.61074074074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45912.63668981481</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45912.63228009259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45912.46197916667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>45916.38</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>45730.48341435185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45917.47033564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45919</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44417</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45831.42825231481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45831.41347222222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45461</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45300</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45922.61495370371</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>45049.92737268518</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45170</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45923.34506944445</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45561.59516203704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>45833.5987962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>45923.34505787037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>45832.3468287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45924</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>45925.36983796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45833.68674768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45833.59173611111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45172</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45084.63084490741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44441</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>45644.59050925926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>45511.92836805555</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45511.9284837963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45926.43288194444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45511.92864583333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>45310</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>45834</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45594.43673611111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>45930.44105324074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45930.31474537037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45930.38743055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45930.62128472222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>45485.35091435185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45838.40053240741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45838.3827662037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45754.4134837963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45540.3612037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45841.40692129629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45840.65033564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>45488.65130787037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45936</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45840.57563657407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45936</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45936.4525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45937</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45840.37125</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45163</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>45163</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45841.621875</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45938</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45842.59473379629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45842.61521990741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45842.57553240741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45943.38599537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45941.81591435185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45943.38590277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45617</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45943.59478009259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45842.41072916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>45842.64652777778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45842.58432870371</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>45846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>45104</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>45945.34512731482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45947.53201388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45947.55268518518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>45947.55271990741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>45947.55287037037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>45947.55298611111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>45846</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>45947</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>45947.55290509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45947.57334490741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>45947.53204861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45947.59458333333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45947.58113425926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45614.66203703704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45849.53079861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>45947</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45104</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45855.54017361111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>45858.7578125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45433.45328703704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45202</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45202</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45273</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45439.61412037037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45950.64244212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45951.63616898148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45825.33515046296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45860.46461805556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45635</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45952.44921296297</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45620</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45859.44616898148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45952.34993055555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45623.60524305556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45623.6249537037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45271.61415509259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>45952.42099537037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45621.38637731481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45954</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45954.41210648148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45957.3443287037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45957</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45450.92833333334</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45372.92850694444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45820.51743055556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45870.60596064815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44848</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45870.32920138889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>45665.65660879629</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45462</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>45069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>45168</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45182</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45877.48462962963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45958.46975694445</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45958.46978009259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45877.54078703704</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45694.59717592593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45960.40697916667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45877.57869212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45530.44016203703</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45960.33998842593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44461.59241898148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45623.60400462963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45623.60804398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44254</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>45519.579375</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45965.34479166667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45965.3446875</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>45965.34471064815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45965.34484953704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>45882.64671296296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45966</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>45966</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45966</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>45881.57440972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45607.38243055555</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>45678.45819444444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45966</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>45966.63467592592</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>45971.57378472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45244</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45971.44827546296</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45882.67741898148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45177.50577546296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>45973.54331018519</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>45973.5503587963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45667.5803125</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45974.48989583334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45541.45086805556</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45168</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44357.9190162037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45084</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45628.57732638889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>46020.43430555556</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>45611.38663194444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>45979.36954861111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>46020.44150462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45980.69892361111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>45980.64873842592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>45981.34599537037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>45981.34552083333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45981.34565972222</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>45156</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>46029.46365740741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>46029.38585648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45987.42810185185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44904.44261574074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>46029.59167824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45986.39921296296</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>45742</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>46029.47375</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45989.57416666667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>46031.3431712963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>46031.63582175926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45608.48483796296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>45988</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>45989</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45989.44947916667</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45756.46568287037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>46035.34442129629</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45175.92457175926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>46035.34439814815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45429.40755787037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45993.34473379629</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45993</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44657.93243055556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>45609.66168981481</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>46035.47445601852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>46035.50423611111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>46035.6363425926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45993.46925925926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45993</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>46035.49623842593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45993.34475694445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45604.42592592593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45530.44527777778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>46035.65710648148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>46036.63644675926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45157</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>45727.6358912037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45420.62534722222</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>45485</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45163</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45163</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45614.5381712963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45551.55501157408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45160</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44944.41868055556</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>45614.55703703704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45157</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45407.63806712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45670.54126157407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45999.52586805556</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44867</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45742.65662037037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>46001.34512731482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>46001.36390046297</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>45257.50859953704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45602.38738425926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45161</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>45573.65248842593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>46001.34778935185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>45336.93761574074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>46042.62834490741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44876</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>45551.45835648148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>45586.67015046296</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>46001.34715277778</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>45618</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>45551.43978009259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>45551.44489583333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45936</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>46003.51107638889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44524.9221412037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44510</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44853</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28465,7 +28465,7 @@
         <v>45548.53137731482</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>45573.64682870371</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45037.35241898148</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44867</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45601.6375462963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>46008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28931,7 +28931,7 @@
         <v>45540.59734953703</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>46008.63635416667</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45184</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45551.36658564815</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45938</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>46055.42748842593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>45163.92680555556</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45750.65398148148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>45274</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45511.92831018518</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45511.92890046296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45511.92940972222</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45623.59846064815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44556.8244212963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45737.37833333333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45533.45237268518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>45545.66155092593</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>44468</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>45525.78375</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45547</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45085.92760416667</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>45161</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45579.555625</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45178.92329861111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45614.54942129629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45019.65273148148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45519.58368055556</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45450</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45499.45645833333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>45462.38275462963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>45462.38805555556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>45719</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45554.42751157407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45579.55914351852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45114</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45306.52886574074</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>45425.40733796296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>45610.5895949074</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45552.64715277778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31281,7 +31281,7 @@
         <v>45428</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31338,7 +31338,7 @@
         <v>44383.50582175926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31395,7 +31395,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
         <v>44615</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         <v>45559.65309027778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>45754.41245370371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31685,7 +31685,7 @@
         <v>45708.34431712963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         <v>45208.94865740741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>45527.46944444445</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31866,7 +31866,7 @@
         <v>44914</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31923,7 +31923,7 @@
         <v>45586.66560185186</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31985,7 +31985,7 @@
         <v>45586</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>45580.54452546296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32109,7 +32109,7 @@
         <v>44944.52116898148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32166,7 +32166,7 @@
         <v>44867</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45362.96918981482</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45174.92231481482</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>44445.92061342593</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>45462.37814814815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>45596.3479050926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>45009</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32570,7 +32570,7 @@
         <v>45469.61785879629</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>45750.65299768518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32689,7 +32689,7 @@
         <v>45750.65483796296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32746,7 +32746,7 @@
         <v>45090.41349537037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>45636</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>45604.36130787037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>45156</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>45614.63747685185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>45406</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>45719</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>45754.41447916667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>45534.52609953703</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>45763.59434027778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>45763.59438657408</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>45541.36414351852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45190</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45432.65126157407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>45561</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33740,7 +33740,7 @@
         <v>44348.40371527777</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>45187</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>44670.54792824074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33911,7 +33911,7 @@
         <v>45470</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33968,7 +33968,7 @@
         <v>44963.44527777778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>45170</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>45474.43996527778</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>45462.45252314815</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44750.674375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>45439</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34325,7 +34325,7 @@
         <v>45172</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>45173</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34439,7 +34439,7 @@
         <v>45173</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         <v>45485</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34553,7 +34553,7 @@
         <v>45748</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34610,7 +34610,7 @@
         <v>45442</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>45439</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>45644</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>45229.64980324074</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>45482.30600694445</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>45622.56356481482</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45198</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45630.34612268519</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44830.32160879629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44958.92283564815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45784</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45788.65594907408</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45182</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45511.92706018518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45170.92561342593</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45362</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45469.42753472222</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>45183</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35671,7 +35671,7 @@
         <v>45132.38693287037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>45792.51623842592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>45155</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44943</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>45796.68282407407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45511.92907407408</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>45796.38513888889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45384</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45840</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45897.34474537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45834.48988425926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45895.58626157408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45853.78947916667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>45574.69194444444</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45600.58561342592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45511.92913194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45523.60096064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45587.53958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45922.36203703703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45289</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45849.59368055555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45826.55575231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45981.55208333334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>45981.55298611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45622.61625</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45587.38496527778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45609.62820601852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45531.41425925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45918.47039351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45544.70700231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45981.54915509259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45985.42745370371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45513.68399305556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>45639.56111111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>45583.37048611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45889.40774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45889.41836805556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45622.33753472222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>45832.65657407408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45520.57005787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>45960.34290509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45946</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>46051.36436342593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>46010.52430555555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45432.60155092592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45616.4488425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45621.67853009259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>44830.92861111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44462.53556712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44602.92150462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44370.62300925926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44873.92929398148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44873</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44546.4796875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44466</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44742.92701388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44615</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>44869</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44838.92716435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44476.49274305555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44844</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44286.92057870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44307.91818287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44237</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44872.92878472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44879.82162037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>44424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44487.42274305555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44470</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44376</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44453</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44818.56847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44869</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44445.92101851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44872</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>45625.49637731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44608</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45537.36001157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45173.69394675926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45699.3434837963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44435</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45327</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45162</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45462</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>45516.83846064815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45478</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>45569.44123842593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45068.92681712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45604</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45016</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45574</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45336.93773148148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45336.93798611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45569.53740740741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>45219.41938657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>45085.92733796296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>45085.92752314815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>45736</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>45621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>45644</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>45457.65552083333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>45558.57508101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45748.65944444444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>45672.64280092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>45743</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>45580.62873842593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>45184</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>45583.34958333334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44929.92520833333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45573.37309027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45798.65332175926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45399.41329861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45673.64859953704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45799.55508101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44893.92833333334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45748</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45799.55607638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45799.55739583333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>45799.51130787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>45209</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44999</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>45511.92854166667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45803.61543981481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44594</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45183.92153935185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>45166</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>45884.44443287037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>45240</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>45887.56513888889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>45524.70659722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44482.9227662037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>45161</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45888.63672453703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45147</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45537.52844907407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45888.63680555556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45485.37736111111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45750.65672453704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45891</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45441</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>45891.33292824074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45812.41510416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45890.68950231482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45891.4024537037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>45462.53011574074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>45517.67284722222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44904.44421296296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>45594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45895.36784722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>45895.44799768519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45523</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45587.37518518518</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45895.33680555555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45604.42872685185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45895.61975694444</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45894.49003472222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440.9255324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45896.65674768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45603</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45896.63652777778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45901.40425925926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45898.58579861111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45901.38766203704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45678.45821759259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45820.65319444444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45820</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45903.42737268518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45821.38677083333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>45902.36511574074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44893.92828703704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45898</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45820</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45905.33974537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45544.62537037037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45905.54627314815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45905.56924768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45824.58925925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>45824.60665509259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>45208</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>45824.51351851852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>45908.46253472222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>45174.92260416667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>45824.7070949074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>45908.44136574074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45734</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45107</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45341</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45912.61074074074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45912.63668981481</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45912.63228009259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45912.46197916667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>45916.38</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>45730.48341435185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45917.47033564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45919</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44417</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45831.42825231481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45831.41347222222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45461</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45300</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45922.61495370371</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>45049.92737268518</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45170</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45923.34506944445</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45561.59516203704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>45833.5987962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>45923.34505787037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>45832.3468287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45924</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>45925.36983796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45833.68674768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45833.59173611111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45172</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45084.63084490741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44441</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>45644.59050925926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>45511.92836805555</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45511.9284837963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45926.43288194444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45511.92864583333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>45310</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>45834</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45594.43673611111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>45930.44105324074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45930.31474537037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45930.38743055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45930.62128472222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>45485.35091435185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45838.40053240741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45838.3827662037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45754.4134837963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45540.3612037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45841.40692129629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45840.65033564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>45488.65130787037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45936</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45840.57563657407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45936</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45936.4525</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45937</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45840.37125</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45163</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>45163</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45841.621875</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45938</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45842.59473379629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45842.61521990741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45842.57553240741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45943.38599537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45941.81591435185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45943.38590277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45617</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45943.59478009259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45842.41072916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>45842.64652777778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45842.58432870371</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>45846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>45104</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>45945.34512731482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45947.53201388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45947.55268518518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>45947.55271990741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>45947.55287037037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>45947.55298611111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>45846</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>45947</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>45947.55290509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45947.57334490741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>45947.53204861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45947.59458333333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45947.58113425926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45614.66203703704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45849.53079861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>45947</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45104</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45855.54017361111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>45858.7578125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45433.45328703704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45202</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45202</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45273</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45439.61412037037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45950.64244212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45951.63616898148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45825.33515046296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45860.46461805556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45635</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>45952.44921296297</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>45620</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>45859.44616898148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45952.34993055555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45623.60524305556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45623.6249537037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45271.61415509259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>45952.42099537037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45621.38637731481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45954</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45954.41210648148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45957.3443287037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45957</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45450.92833333334</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45372.92850694444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45820.51743055556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>45870.60596064815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44848</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45870.32920138889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>45665.65660879629</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45462</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>45069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>45168</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45182</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45877.48462962963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45958.46975694445</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45958.46978009259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45877.54078703704</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45694.59717592593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45960.40697916667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45877.57869212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45530.44016203703</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45960.33998842593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44461.59241898148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45623.60400462963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45623.60804398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44254</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>45519.579375</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45965.34479166667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45965.3446875</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>45965.34471064815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45965.34484953704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>45882.64671296296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45966</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>45966</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45966</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>45881.57440972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45607.38243055555</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>45678.45819444444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45966</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>45966.63467592592</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>45971.57378472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45244</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45971.44827546296</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45882.67741898148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45177.50577546296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>45973.54331018519</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>45973.5503587963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45667.5803125</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45974.48989583334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45541.45086805556</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45168</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44357.9190162037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45084</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45628.57732638889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>46020.43430555556</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>45611.38663194444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>45979.36954861111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>46020.44150462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45980.69892361111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>45980.64873842592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>45981.34599537037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>45981.34552083333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45981.34565972222</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>45156</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>46029.46365740741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>46029.38585648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45987.42810185185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44904.44261574074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>46029.59167824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45986.39921296296</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>45742</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>46029.47375</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45989.57416666667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>46031.3431712963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>46031.63582175926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45608.48483796296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>45988</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>45989</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45989.44947916667</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45756.46568287037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>46035.34442129629</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45167</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45169</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44945</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45175.92457175926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>46035.34439814815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45429.40755787037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45993.34473379629</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45993</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44657.93243055556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>45609.66168981481</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>46035.47445601852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>46035.50423611111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>46035.6363425926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45993.46925925926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45993</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>46035.49623842593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45993.34475694445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45604.42592592593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45530.44527777778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>46035.65710648148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>46036.63644675926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45157</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>45727.6358912037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45420.62534722222</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>45485</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45163</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45163</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45614.5381712963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45551.55501157408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45160</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44944.41868055556</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>45614.55703703704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45157</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45407.63806712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45670.54126157407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45999.52586805556</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44867</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45742.65662037037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>46001.34512731482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>46001.36390046297</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>45257.50859953704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45602.38738425926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45161</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>45573.65248842593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>46001.34778935185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>45336.93761574074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>46042.62834490741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44876</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>45551.45835648148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>45586.67015046296</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>46001.34715277778</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>45618</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>45551.43978009259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>45551.44489583333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45936</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>46003.51107638889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44524.9221412037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44510</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44853</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28465,7 +28465,7 @@
         <v>45548.53137731482</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>44963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44284</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>45573.64682870371</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45037.35241898148</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44867</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45601.6375462963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>46008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28931,7 +28931,7 @@
         <v>45540.59734953703</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>46008.63635416667</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45184</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45551.36658564815</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45938</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>46055.42748842593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>45163.92680555556</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45750.65398148148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>45274</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45511.92831018518</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45511.92890046296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45511.92940972222</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45623.59846064815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44556.8244212963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45737.37833333333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45533.45237268518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>45545.66155092593</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>44468</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>45525.78375</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45547</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45085.92760416667</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>45161</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45579.555625</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45178.92329861111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45614.54942129629</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45019.65273148148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45519.58368055556</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45450</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45499.45645833333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>45462.38275462963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>45462.38805555556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>45719</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45554.42751157407</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45579.55914351852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45114</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45306.52886574074</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>45425.40733796296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>45610.5895949074</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45552.64715277778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31281,7 +31281,7 @@
         <v>45428</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31338,7 +31338,7 @@
         <v>44383.50582175926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31395,7 +31395,7 @@
         <v>45044</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
         <v>44615</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         <v>45559.65309027778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>45754.41245370371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31685,7 +31685,7 @@
         <v>45708.34431712963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         <v>45208.94865740741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>45527.46944444445</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31866,7 +31866,7 @@
         <v>44914</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31923,7 +31923,7 @@
         <v>45586.66560185186</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31985,7 +31985,7 @@
         <v>45586</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>45580.54452546296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32109,7 +32109,7 @@
         <v>44944.52116898148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32166,7 +32166,7 @@
         <v>44867</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>45362.96918981482</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45174.92231481482</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32342,7 +32342,7 @@
         <v>44445.92061342593</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>45462.37814814815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>45596.3479050926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32513,7 +32513,7 @@
         <v>45009</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32570,7 +32570,7 @@
         <v>45469.61785879629</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>45750.65299768518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32689,7 +32689,7 @@
         <v>45750.65483796296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32746,7 +32746,7 @@
         <v>45090.41349537037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>45636</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>45604.36130787037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>45156</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>45614.63747685185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>45406</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>45719</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>45754.41447916667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>45534.52609953703</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>45763.59434027778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>45763.59438657408</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>45541.36414351852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45190</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45426</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45432.65126157407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>45561</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33740,7 +33740,7 @@
         <v>44348.40371527777</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>45187</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33854,7 +33854,7 @@
         <v>44670.54792824074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33911,7 +33911,7 @@
         <v>45470</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33968,7 +33968,7 @@
         <v>44963.44527777778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>45170</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>45474.43996527778</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>45462.45252314815</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44750.674375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>45439</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34325,7 +34325,7 @@
         <v>45172</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>45173</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34439,7 +34439,7 @@
         <v>45173</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         <v>45485</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34553,7 +34553,7 @@
         <v>45748</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34610,7 +34610,7 @@
         <v>45442</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>45439</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>45644</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>45229.64980324074</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>45482.30600694445</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>45622.56356481482</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45198</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45630.34612268519</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44830.32160879629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44958.92283564815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45784</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45788.65594907408</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45182</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45511.92706018518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45170.92561342593</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45362</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45469.42753472222</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>45183</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35671,7 +35671,7 @@
         <v>45132.38693287037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>45792.51623842592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>45155</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44943</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>45796.68282407407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45511.92907407408</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>45796.38513888889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45384</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45840</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45897.34474537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45834.48988425926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45895.58626157408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45853.78947916667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>45574.69194444444</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45600.58561342592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45511.92913194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45523.60096064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45587.53958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45922.36203703703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45289</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45849.59368055555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45826.55575231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45622.61625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>45981.55208333334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45981.55298611111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45587.38496527778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45609.62820601852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45531.41425925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45918.47039351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45544.70700231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45981.54915509259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45985.42745370371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45513.68399305556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>45639.56111111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>45583.37048611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45889.40774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45889.41836805556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45832.65657407408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>45622.33753472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45520.57005787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45960.34290509259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45946</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>46051.36436342593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>46010.52430555555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45432.60155092592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45616.4488425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45621.67853009259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>44830.92861111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44462.53556712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44602.92150462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44370.62300925926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44873.92929398148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44873</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44546.4796875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44466</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44742.92701388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44869</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44382</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44838.92716435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44615</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44476.49274305555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44844</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44307.91818287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44286.92057870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44872.92878472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44879.82162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44487.42274305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44470</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44869</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44818.56847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44445.92101851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44867</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44872</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45625.49637731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>45173.69394675926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45699.3434837963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45537.36001157408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44435</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45327</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45162</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45462</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45516.83846064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45478</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45569.44123842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45068.92681712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45604</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45574</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45016</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45336.93773148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45336.93798611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45569.53740740741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>45219.41938657407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>45085.92733796296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>45085.92752314815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>45644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45580.62873842593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>45457.65552083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45558.57508101852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>45748.65944444444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45672.64280092593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>45743</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>45184</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45583.34958333334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44929.92520833333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45573.37309027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45399.41329861111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45673.64859953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44893.92833333334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45209</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>44999</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>45511.92854166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45183.92153935185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45166</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45524.70659722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45147</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45161</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>45736</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45621</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45485.37736111111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45517.67284722222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44904.44421296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>45426</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>45750.65672453704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>45587.37518518518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45604.42872685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44440.9255324074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45884.44443287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45240</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45887.56513888889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45603</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45820.65319444444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45820</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45821.38677083333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>45820</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>45888.63672453703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>45824.58925925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45824.60665509259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45824.51351851852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45824.7070949074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45341</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45888.63680555556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>44893.92828703704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>45891</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45891.33292824074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45544.62537037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45890.68950231482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45891.4024537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>45208</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45594</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45895.36784722222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45895.44799768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45174.92260416667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45107</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45895.33680555555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45895.61975694444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>45894.49003472222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45831.42825231481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45831.41347222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45896.65674768519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45833.5987962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45832.3468287037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>45896.63652777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>45901.40425925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>45833.68674768518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45898.58579861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>45090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45833.59173611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>45730.48341435185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45901.38766203704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>45678.45821759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45903.42737268518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>45902.36511574074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>45834</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45898</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44417</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45838.40053240741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45461</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45838.3827662037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45300</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45049.92737268518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45905.33974537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45905.54627314815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45170</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45905.56924768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45561.59516203704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45908.46253472222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45908.44136574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45841.40692129629</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45840.65033564815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45840.57563657407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45840.37125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45841.621875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>45172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>45084.63084490741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44441</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45842.59473379629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45842.61521990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>45842.57553240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45644.59050925926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45617</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45842.41072916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45511.92836805555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45511.9284837963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45842.64652777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>45511.92864583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>45912.61074074074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45842.58432870371</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45912.63668981481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45310</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45846</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45912.63228009259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45846</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45912.46197916667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45916.38</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45849.53079861111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45594.43673611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45917.47033564815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45485.35091435185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>45919</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>45855.54017361111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45754.4134837963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45858.7578125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45433.45328703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45202</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>45202</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45273</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45922.61495370371</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45439.61412037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45540.3612037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45923.34506944445</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45825.33515046296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45860.46461805556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45620</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45859.44616898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45488.65130787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>45923.34505787037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>45924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>45925.36983796296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>45271.61415509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>45163</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45163</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>45926.43288194444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>45450.92833333334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>45820.51743055556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45870.60596064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45870.32920138889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>45930.44105324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45930.31474537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45930.38743055556</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45930.62128472222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>45877.48462962963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45877.54078703704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45104</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45877.57869212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45614.66203703704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45104</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45936</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45882.64671296296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45881.57440972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45936.4525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45937</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>45882.67741898148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45635</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45623.60524305556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45623.6249537037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>45938</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>45621.38637731481</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>45943.38599537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>45941.81591435185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>45943.38590277778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45943.59478009259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45372.92850694444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44848</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45665.65660879629</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45462</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45945.34512731482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45947.53201388889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45947.55268518518</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45947.55271990741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45947.55287037037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>45947.55298611111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>45947</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45947.55290509259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>45947.57334490741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>45947.53204861111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45947.59458333333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>45069</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45168</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45947.58113425926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45947</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45694.59717592593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45530.44016203703</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45950.64244212963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45951.63616898148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44461.59241898148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45952.44921296297</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>45952.34993055555</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45623.60400462963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45623.60804398148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>44254</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45519.579375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45952.42099537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45954</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45954.41210648148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45607.38243055555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>45957.3443287037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45678.45819444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45957</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>45958.46975694445</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45958.46978009259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45177.50577546296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>45667.5803125</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>45960.40697916667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>45960.33998842593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45541.45086805556</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44357.9190162037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45628.57732638889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45965.34479166667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45965.3446875</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45965.34471064815</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45965.34484953704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45611.38663194444</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45966</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45966</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45966</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45966.63467592592</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45971.57378472222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>45971.44827546296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45973.54331018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45973.5503587963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>45156</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>45974.48989583334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45104</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44904.44261574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>45742</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45979.36954861111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>45980.69892361111</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>45980.64873842592</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>45981.34599537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>45608.48483796296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>45981.34552083333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45981.34565972222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45756.46568287037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45167</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44945</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>45175.92457175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>45429.40755787037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>45987.42810185185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>45986.39921296296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44657.93243055556</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>45609.66168981481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45604.42592592593</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45530.44527777778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45989.57416666667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>45988</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45989</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>45989.44947916667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>46035.34442129629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45157</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45727.6358912037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45420.62534722222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>46035.34439814815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45485</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>45993.34473379629</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>45993</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>46035.47445601852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>46035.50423611111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>46035.6363425926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>45163</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>45163</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>45993.46925925926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>46035.49623842593</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>45993.34475694445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>46035.65710648148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45614.5381712963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>45551.55501157408</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>45160</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>46036.63644675926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25483,7 +25483,7 @@
         <v>44944.41868055556</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25540,7 +25540,7 @@
         <v>45614.55703703704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>45157</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>45407.63806712963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45670</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>45670.54126157407</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44867</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45742.65662037037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45257.50859953704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45602.38738425926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45573.65248842593</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45999.52586805556</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45336.93761574074</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44876</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45551.45835648148</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45586.67015046296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>46001.34512731482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>46001.36390046297</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>45618</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>45551.43978009259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45551.44489583333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>46001.34778935185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>46042.62834490741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44524.9221412037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>44510</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>46001.34715277778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44853</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45548.53137731482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44284</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45936</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>46003.51107638889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45573.64682870371</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45037.35241898148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>44867</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>45601.6375462963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45540.59734953703</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45184</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45551.36658564815</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>46008</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>46008.63635416667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45163.92680555556</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45750.65398148148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45938</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>46055.42748842593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>45274</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45511.92831018518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45511.92890046296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45511.92940972222</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45623.59846064815</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44556.8244212963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>46020.43430555556</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45737.37833333333</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>46062.40667824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>46020.44150462963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>45533.45237268518</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45545.66155092593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44468</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45525.78375</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>45547</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>45085.92760416667</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>45161</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45579.555625</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45178.92329861111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45614.54942129629</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>46029.38585648148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45019.65273148148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>46029.46365740741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>46029.47375</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>46029.59167824074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45519.58368055556</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45450</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45499.45645833333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45462.38275462963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45462.38805555556</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45719</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45554.42751157407</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>45579.55914351852</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45114</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>46031.3431712963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45306.52886574074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>45425.40733796296</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>46031.63582175926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>45610.5895949074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>45552.64715277778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45428</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44383.50582175926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45044</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44615</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45559.65309027778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30934,7 +30934,7 @@
         <v>45754.41245370371</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30991,7 +30991,7 @@
         <v>45708.34431712963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31048,7 +31048,7 @@
         <v>45208.94865740741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>45527.46944444445</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>44914</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>45586.66560185186</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>45586</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45580.54452546296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44944.52116898148</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44867</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>45362.96918981482</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31591,7 +31591,7 @@
         <v>45174.92231481482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>44445.92061342593</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45462.37814814815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>45596.3479050926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45009</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45469.61785879629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31938,7 +31938,7 @@
         <v>45750.65299768518</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31995,7 +31995,7 @@
         <v>45750.65483796296</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32052,7 +32052,7 @@
         <v>45090.41349537037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45636</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45604.36130787037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>45156</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>45614.63747685185</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45406</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45719</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32461,7 +32461,7 @@
         <v>45754.41447916667</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32518,7 +32518,7 @@
         <v>45534.52609953703</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>45763.59434027778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>45763.59438657408</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>45541.36414351852</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>45190</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>45426</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>45432.65126157407</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>45561</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44348.40371527777</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>45187</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44670.54792824074</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>45470</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44963.44527777778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>45170</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>45474.43996527778</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45462.45252314815</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33512,7 +33512,7 @@
         <v>44750.674375</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>45439</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>45172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>45173</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>45173</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>45485</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>45748</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45442</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45439</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>45644</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>45229.64980324074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45482.30600694445</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45622.56356481482</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45198</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45630.34612268519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44830.32160879629</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44958.92283564815</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>45784</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>45788.65594907408</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34687,7 +34687,7 @@
         <v>45511.92706018518</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34744,7 +34744,7 @@
         <v>45170.92561342593</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34801,7 +34801,7 @@
         <v>45362</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>45469.42753472222</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45183</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45132.38693287037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45792.51623842592</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45155</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>44943</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45796.68282407407</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>45511.92907407408</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>45796.38513888889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45384</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45798.65332175926</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45799.55508101852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45799.55607638889</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45799.55739583333</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>45799.51130787037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>45803.61543981481</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44482.9227662037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>45537.52844907407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>45441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45812.41510416667</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45462.53011574074</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45523</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45840</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45897.34474537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45834.48988425926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45895.58626157408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45853.78947916667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>45574.69194444444</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45600.58561342592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45511.92913194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45523.60096064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45587.53958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45922.36203703703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45289</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45849.59368055555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45826.55575231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45622.61625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>45981.55208333334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45981.55298611111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45587.38496527778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45609.62820601852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45531.41425925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45918.47039351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45544.70700231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45981.54915509259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45985.42745370371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45513.68399305556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>45639.56111111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>45583.37048611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45889.40774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45889.41836805556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45832.65657407408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>45622.33753472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45520.57005787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45960.34290509259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45946</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>46051.36436342593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>46010.52430555555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45432.60155092592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45616.4488425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45621.67853009259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>44830.92861111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44462.53556712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44602.92150462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44370.62300925926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44873.92929398148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44873</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44546.4796875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44466</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44742.92701388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44869</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44382</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44838.92716435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44615</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44476.49274305555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44844</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44307.91818287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44286.92057870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44872.92878472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44879.82162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44487.42274305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44470</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44869</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44818.56847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44445.92101851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44867</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44872</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45625.49637731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>45173.69394675926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45699.3434837963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45537.36001157408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44435</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45327</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45162</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45462</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45516.83846064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45478</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45569.44123842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45068.92681712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45604</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45574</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45016</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45336.93773148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45336.93798611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45569.53740740741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>45219.41938657407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>45085.92733796296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>45085.92752314815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>45644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45580.62873842593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>45457.65552083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45558.57508101852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>45748.65944444444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45672.64280092593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>45743</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>45184</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45583.34958333334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>44929.92520833333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45573.37309027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45399.41329861111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45673.64859953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44893.92833333334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45209</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>44999</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>45511.92854166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45183.92153935185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45166</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45524.70659722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45147</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45161</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>45736</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45621</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45485.37736111111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45517.67284722222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>44904.44421296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>45426</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>45750.65672453704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>45587.37518518518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45604.42872685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44440.9255324074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45884.44443287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45240</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45887.56513888889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45603</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45820.65319444444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45820</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45821.38677083333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>45820</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>45888.63672453703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>45824.58925925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45824.60665509259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45824.51351851852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45824.7070949074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45341</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>45888.63680555556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>44893.92828703704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>45891</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45891.33292824074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45544.62537037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45890.68950231482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45891.4024537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>45208</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45594</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45895.36784722222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45895.44799768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45174.92260416667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45107</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45895.33680555555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45895.61975694444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>45894.49003472222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45831.42825231481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45831.41347222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45896.65674768519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45833.5987962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45832.3468287037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>45896.63652777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>45901.40425925926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>45833.68674768518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45898.58579861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>45090</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45833.59173611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>45730.48341435185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45901.38766203704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>45678.45821759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45903.42737268518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>45902.36511574074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>45834</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45898</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44417</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45838.40053240741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45461</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45838.3827662037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45300</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45049.92737268518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45905.33974537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45905.54627314815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45170</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45905.56924768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45561.59516203704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45908.46253472222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45908.44136574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45841.40692129629</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45840.65033564815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45840.57563657407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45840.37125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45841.621875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>45172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>45084.63084490741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44441</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45842.59473379629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45842.61521990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>45842.57553240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45644.59050925926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45617</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45842.41072916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45511.92836805555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45511.9284837963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45842.64652777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>45511.92864583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>45912.61074074074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45842.58432870371</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45912.63668981481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45310</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45846</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45912.63228009259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45846</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45912.46197916667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45916.38</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45849.53079861111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45594.43673611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45917.47033564815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45485.35091435185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>45919</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>45855.54017361111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45754.4134837963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45858.7578125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45433.45328703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45202</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>45202</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45273</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45922.61495370371</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45439.61412037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45540.3612037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45923.34506944445</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45825.33515046296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45860.46461805556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45620</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45859.44616898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45488.65130787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>45923.34505787037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>45924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>45925.36983796296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>45271.61415509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>45163</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45163</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>45926.43288194444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>45450.92833333334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>45820.51743055556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45870.60596064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45870.32920138889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>45930.44105324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45930.31474537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45930.38743055556</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45930.62128472222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>45877.48462962963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>45877.54078703704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45104</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45877.57869212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45614.66203703704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45104</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45936</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45882.64671296296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45936</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45881.57440972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45936.4525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45937</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>45882.67741898148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45635</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45623.60524305556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45623.6249537037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>45938</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>45621.38637731481</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>45943.38599537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>45941.81591435185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>45943.38590277778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45943.59478009259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45372.92850694444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44848</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45665.65660879629</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45462</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45945.34512731482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45947.53201388889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45947.55268518518</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45947.55271990741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45947.55287037037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>45947.55298611111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>45947</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45947.55290509259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>45947.57334490741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>45947.53204861111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45947.59458333333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>45069</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45168</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45947.58113425926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45947</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45694.59717592593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45530.44016203703</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45950.64244212963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45951.63616898148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44461.59241898148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45952.44921296297</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>45952.34993055555</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45623.60400462963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45623.60804398148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>44254</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45519.579375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45952.42099537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45954</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45954.41210648148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45607.38243055555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>45957.3443287037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45678.45819444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45957</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>45958.46975694445</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45958.46978009259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45177.50577546296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>45667.5803125</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>45960.40697916667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>45960.33998842593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45541.45086805556</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45168</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44357.9190162037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45628.57732638889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45965.34479166667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45965.3446875</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45965.34471064815</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45965.34484953704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45611.38663194444</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45966</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45966</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45966</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45966</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45966</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45966.63467592592</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45971.57378472222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>45971.44827546296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45973.54331018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45973.5503587963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>45156</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>45974.48989583334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45104</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44904.44261574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>45742</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45979.36954861111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>45980.69892361111</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>45980.64873842592</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>45981.34599537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>45608.48483796296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>45981.34552083333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45981.34565972222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45756.46568287037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45167</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44945</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>45175.92457175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>45429.40755787037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>45987.42810185185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>45986.39921296296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44657.93243055556</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>45609.66168981481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45604.42592592593</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45530.44527777778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45989.57416666667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>45988</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45989</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>45989.44947916667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>46035.34442129629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45157</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45727.6358912037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45420.62534722222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>46035.34439814815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45485</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>45993.34473379629</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>45993</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>46035.47445601852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>46035.50423611111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>46035.6363425926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>45163</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>45163</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>45993.46925925926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>46035.49623842593</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>45993.34475694445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>46035.65710648148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45614.5381712963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>45551.55501157408</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>45160</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>46036.63644675926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25483,7 +25483,7 @@
         <v>44944.41868055556</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25540,7 +25540,7 @@
         <v>45614.55703703704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>45157</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>45407.63806712963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45670</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>45670.54126157407</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44867</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45742.65662037037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45257.50859953704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45602.38738425926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45573.65248842593</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45999.52586805556</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45336.93761574074</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44876</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45551.45835648148</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45586.67015046296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>46001.34512731482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>46001.36390046297</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>45618</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>45551.43978009259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45551.44489583333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>46001.34778935185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>46042.62834490741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44524.9221412037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>44510</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>46001.34715277778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44853</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45548.53137731482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44284</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45936</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>46003.51107638889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45573.64682870371</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45037.35241898148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>44867</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>45601.6375462963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45540.59734953703</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45184</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45551.36658564815</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>46008</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>46008.63635416667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45163.92680555556</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45750.65398148148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45938</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>46055.42748842593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>45274</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45511.92831018518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45511.92890046296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45511.92940972222</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45623.59846064815</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44556.8244212963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>46020.43430555556</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45737.37833333333</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>46062.40667824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>46020.44150462963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>45533.45237268518</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45545.66155092593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44468</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45525.78375</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29003,7 +29003,7 @@
         <v>45547</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
         <v>45085.92760416667</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>45161</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45579.555625</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45178.92329861111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45614.54942129629</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>46029.38585648148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45019.65273148148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29469,7 +29469,7 @@
         <v>46029.46365740741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>46029.47375</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>46029.59167824074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45519.58368055556</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45450</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45499.45645833333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45462.38275462963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45462.38805555556</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45719</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45554.42751157407</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>45579.55914351852</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45114</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>46031.3431712963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45306.52886574074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>45425.40733796296</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>46031.63582175926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>45610.5895949074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>45552.64715277778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45428</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44383.50582175926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45044</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44615</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45098</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45559.65309027778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30934,7 +30934,7 @@
         <v>45754.41245370371</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30991,7 +30991,7 @@
         <v>45708.34431712963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31048,7 +31048,7 @@
         <v>45208.94865740741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>45527.46944444445</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>44914</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>45586.66560185186</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>45586</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45580.54452546296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44944.52116898148</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>44867</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>45362.96918981482</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31591,7 +31591,7 @@
         <v>45174.92231481482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>44445.92061342593</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45462.37814814815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>45596.3479050926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45009</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45469.61785879629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31938,7 +31938,7 @@
         <v>45750.65299768518</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31995,7 +31995,7 @@
         <v>45750.65483796296</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32052,7 +32052,7 @@
         <v>45090.41349537037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45636</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45604.36130787037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>45156</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>45614.63747685185</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45406</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>45719</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32461,7 +32461,7 @@
         <v>45754.41447916667</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32518,7 +32518,7 @@
         <v>45534.52609953703</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>45763.59434027778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32637,7 +32637,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>45763.59438657408</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>45541.36414351852</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>45190</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>45426</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>45432.65126157407</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>45561</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44348.40371527777</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>45187</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44670.54792824074</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>45470</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44963.44527777778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>45170</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>45474.43996527778</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45462.45252314815</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33512,7 +33512,7 @@
         <v>44750.674375</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>45439</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>45172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>45173</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>45173</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>45485</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>45748</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45442</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45439</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>45644</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>45229.64980324074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         <v>45482.30600694445</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45622.56356481482</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45198</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>45630.34612268519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44830.32160879629</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44958.92283564815</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>45784</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>45788.65594907408</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34687,7 +34687,7 @@
         <v>45511.92706018518</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34744,7 +34744,7 @@
         <v>45170.92561342593</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34801,7 +34801,7 @@
         <v>45362</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34858,7 +34858,7 @@
         <v>45469.42753472222</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45183</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>45132.38693287037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45792.51623842592</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45155</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>44943</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45796.68282407407</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>45511.92907407408</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35339,7 +35339,7 @@
         <v>45796.38513888889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45384</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45798.65332175926</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45799.55508101852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45799.55607638889</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45799.55739583333</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>45799.51130787037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>45803.61543981481</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44482.9227662037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>45537.52844907407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>45441</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45812.41510416667</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45462.53011574074</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45523</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45840</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45897.34474537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45834.48988425926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45895.58626157408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45853.78947916667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>45600.58561342592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45574.69194444444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45511.92913194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45523.60096064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45587.53958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45922.36203703703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45622.61625</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>45849.59368055555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45587.38496527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>45826.55575231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45289</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45981.55208333334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45981.55298611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45513.68399305556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45531.41425925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45609.62820601852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45918.47039351852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45544.70700231481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45981.54915509259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45985.42745370371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>45616.4488425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45432.60155092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>45889.40774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45889.41836805556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45832.65657407408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>45639.56111111111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45583.37048611111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45960.34290509259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45946</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>46051.36436342593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>46010.52430555555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>45621.67853009259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>45520.57005787037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45622.33753472222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>44830.92861111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44462.53556712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44602.92150462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44370.62300925926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44873.92929398148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44873</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44546.4796875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44466</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44742.92701388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44615</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>44869</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44838.92716435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44844</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44476.49274305555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44286.92057870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44307.91818287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44872.92878472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44879.82162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44487.42274305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44470</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44869</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44818.56847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45750.65672453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45219.41938657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>45327</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>45552.64715277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>45618</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44893.92833333334</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45208.94865740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45533.45237268518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45583.34958333334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>44876</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45428</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44853</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44383.50582175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45756.46568287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         <v>45229.64980324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>45482.30600694445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45586.66560185186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45586</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45559.65309027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45457.65552083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>45462.37814814815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>45511.92854166667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45163</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45596.3479050926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>45672.64280092593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>45635</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>45621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45485</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45569.53740740741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>45499.45645833333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45439</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45551.43978009259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>45551.44489583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>45551.45835648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45085.92733796296</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>45085.92752314815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>45534.52609953703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45551.36658564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>45803.61543981481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>45611.38663194444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45884.44443287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44482.9227662037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>45519.58368055556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>45554.42751157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44944.41868055556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45888.63672453703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>45178.92329861111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>45537.52844907407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45887.56513888889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>45009</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>45812.41510416667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>45888.63680555556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45462.53011574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45890.68950231482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45441</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45426</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45432.65126157407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45545.66155092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>45037.35241898148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45558.57508101852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>45594</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45891.33292824074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>45541.45086805556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>45820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>45820.65319444444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45894.49003472222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45820</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45821.38677083333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>45824.58925925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45341</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>45824.60665509259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>45891.4024537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45604.42592592593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>45824.51351851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>45579.555625</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45824.7070949074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45896.63652777778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45896.65674768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>45895.44799768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>45895.61975694444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>45895.33680555555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45895.36784722222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45174.92231481482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45898.58579861111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45901.38766203704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45678.45821759259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45902.36511574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45901.40425925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45544.62537037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45831.41347222222</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45903.42737268518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45832.3468287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45831.42825231481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45898</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45905.56924768518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45905.33974537037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45833.68674768518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>45833.59173611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45833.5987962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44440.9255324074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45908.46253472222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>45834</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45838.40053240741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45623.60524305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45623.6249537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45426</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45622.56356481482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45908.44136574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45623.59846064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45905.54627314815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45840.37125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44657.93243055556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45840.57563657407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>45840.65033564815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45838.3827662037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45842.64652777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45628.57732638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45842.59473379629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>45842.58432870371</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>45842.41072916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45841.621875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>45842.57553240741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>45603</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>45842.61521990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>45841.40692129629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>45846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>45617</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>45912.61074074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>45846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>45244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45912.46197916667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>45019.65273148148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>45912.63228009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45912.63668981481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45849.53079861111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45916.38</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45161</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44284</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45855.54017361111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45202</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45825.33515046296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45858.7578125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45439.61412037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45620</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>45859.44616898148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45202</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45433.45328703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45273</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>45860.46461805556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>45614.5381712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45614.54942129629</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45917.47033564815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45922.61495370371</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>45644</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45461</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45271.61415509259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45919</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>45573.37309027778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45923.34506944445</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>45184</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>45157</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>45924</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>45923.34505787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>45614.66203703704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>45519.579375</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>45926.43288194444</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45870.32920138889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45925.36983796296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45870.60596064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45450.92833333334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45930.31474537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>45930.62128472222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45930.44105324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>45170</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>45930.38743055556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>45820.51743055556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>45173.69394675926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45485</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>44929.92520833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>45166</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45877.54078703704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45877.48462962963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45742</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45754.4134837963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45877.57869212963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45882.67741898148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45748.65944444444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45882.64671296296</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45881.57440972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>45485.35091435185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44357.9190162037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45936</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>45936.4525</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45936</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>45719</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45937</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45730.48341435185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>45938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45240</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45743</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>45257.50859953704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45727.6358912037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>45174.92260416667</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>45737.37833333333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45943.59478009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44445.92101851852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>45943.38590277778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>45943.38599537037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>45941.81591435185</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>45945.34512731482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>45090</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>45049.92737268518</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>44461.59241898148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45947</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45548.53137731482</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45947.55271990741</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>45947.53201388889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>45947</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>45947.58113425926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45947.53204861111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45950.64244212963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45947.55287037037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45947.55298611111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45947.55290509259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45947.57334490741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45947.59458333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45947.55268518518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44348.40371527777</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45952.42099537037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45951.63616898148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45952.34993055555</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45952.44921296297</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45954.41210648148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>45954</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45958.46975694445</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>45958.46978009259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>45957</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45699.3434837963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45742.65662037037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>45636</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45517.67284722222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45104</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45957.3443287037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45748</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45084.63084490741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45960.33998842593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45960.40697916667</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45016</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45372.92850694444</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45147</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45966</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45537.36001157408</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44556.8244212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45580.54452546296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45965.34484953704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45399.41329861111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45965.34479166667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>45966</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>45966.63467592592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>45569.44123842593</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45965.3446875</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45965.34471064815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44445.92061342593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>45966</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45966</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>45098</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45488.65130787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>45157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45156</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>45162</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45971.44827546296</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44510</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>45971.57378472222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>45425.40733796296</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45601.6375462963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45973.5503587963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>45610.5895949074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45974.48989583334</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45442</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>45973.54331018519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>45114</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>45579.55914351852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>45044</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>45614.55703703704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>45980.69892361111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>45602.38738425926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>45979.36954861111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>45980.64873842592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>45981.34552083333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>45981.34565972222</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>45981.34599537037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45462</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>45274</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45580.62873842593</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45986.39921296296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45541.36414351852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45085.92760416667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45527.46944444445</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>45561.59516203704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>45988</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45987.42810185185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45604.36130787037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45989.44947916667</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>45989</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45989.57416666667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>45172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>45511.92831018518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>45184</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>45604</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>45068.92681712963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>45573.65248842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45993</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45993.34475694445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>45993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>45993.34473379629</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45993.46925925926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45090.41349537037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>45407.63806712963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>46042.62834490741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>45594.43673611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>45625.49637731481</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45511.92890046296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>45511.92940972222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45999.52586805556</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45621.38637731481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>44594</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>46001.34715277778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45104</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>46001.34778935185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45547</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>46001.34512731482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>46001.36390046297</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45183.92153935185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45694.59717592593</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>46003.51107638889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>45665.65660879629</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45708.34431712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45754.41245370371</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45936</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45630.34612268519</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45574</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44670.54792824074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>46008.63635416667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>46008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45173</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45763.59434027778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45763.59438657408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45198</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45177.50577546296</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45938</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>45208</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45187</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>45170</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>45182</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>45172</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>46055.42748842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45420.62534722222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>45173</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>46020.44150462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>46062.40667824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>46020.43430555556</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45163.92680555556</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45336.93761574074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45306.52886574074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45450</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44945</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45310</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44867</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>44848</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45561</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>44872</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>46029.47375</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>45167</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>46029.59167824074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>46029.38585648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>46029.46365740741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>46031.3431712963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>46031.63582175926</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>45485.37736111111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>45478</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>46035.34439814815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>46035.34442129629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>46036.63644675926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>46035.49623842593</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>46077.66824074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>46035.50423611111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29935,7 +29935,7 @@
         <v>46035.6363425926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>46035.65710648148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>46035.47445601852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>44893.92828703704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45551.55501157408</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45540.59734953703</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>45974</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44441</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45462.45252314815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>45462</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>45604.42872685185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45891</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44999</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44750.674375</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45336.93773148148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45336.93798611111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44904.44261574074</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>44435</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>44615</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31115,7 +31115,7 @@
         <v>45673.64859953704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>45190</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>45104</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>45525.78375</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44944.52116898148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45469.61785879629</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>45530.44527777778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>44914</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>44904.44421296296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45511.92836805555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45511.9284837963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>45511.92864583333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45607.38243055555</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45168</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45161</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45524.70659722222</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45156</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44524.9221412037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45530.44016203703</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>45516.83846064815</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44963.44527777778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>45670</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>45670.54126157407</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>45609.66168981481</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>45163</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45169</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>45754.41447916667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45736</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>45644.59050925926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>45608.48483796296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44867</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>45462.38275462963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>45462.38805555556</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>45667.5803125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>45750.65398148148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>45474.43996527778</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>45084</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>45587.37518518518</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>45107</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>45573.64682870371</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>45300</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>45439</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33589,7 +33589,7 @@
         <v>45168</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45614.63747685185</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45160</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45362.96918981482</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45163</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45163</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45163</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45406</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34107,7 +34107,7 @@
         <v>44417</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>45678.45819444444</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45429.40755787037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45586.67015046296</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45644</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45748</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45175.92457175926</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45623.60400462963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45623.60804398148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45750.65299768518</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45750.65483796296</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45470</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45540.3612037037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44958.92283564815</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44830.32160879629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45784</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45170.92561342593</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45511.92706018518</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45362</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45788.65594907408</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45182</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45792.51623842592</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45183</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>45469.42753472222</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>45511.92907407408</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45132.38693287037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44943</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>45384</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>45155</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>45796.38513888889</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45796.68282407407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45798.65332175926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45799.55607638889</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45799.55508101852</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45799.55739583333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>45799.51130787037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>

--- a/Översikt NORSJÖ.xlsx
+++ b/Översikt NORSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45840</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45897.34474537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45834.48988425926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45895.58626157408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45853.78947916667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>45600.58561342592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45574.69194444444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45511.92913194445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45523.60096064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45587.53958333333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45922.36203703703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45622.61625</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>45849.59368055555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45587.38496527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>45826.55575231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45289</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45981.55208333334</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45981.55298611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45513.68399305556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45531.41425925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>45609.62820601852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45918.47039351852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>45544.70700231481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45981.54915509259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45985.42745370371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>45616.4488425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45432.60155092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>45889.40774305556</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45889.41836805556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45832.65657407408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>45639.56111111111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45583.37048611111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45960.34290509259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45946</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>46051.36436342593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>46010.52430555555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>45621.67853009259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>45520.57005787037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45622.33753472222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>44830.92861111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44462.53556712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44602.92150462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44370.62300925926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44873.92929398148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44873</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44546.4796875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44466</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44742.92701388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>44615</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>44869</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44838.92716435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44844</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44476.49274305555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44286.92057870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44307.91818287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44872.92878472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>44879.82162037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44487.42274305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44470</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44869</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44818.56847222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45750.65672453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45219.41938657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>45327</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>45552.64715277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>45618</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44893.92833333334</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45208.94865740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45533.45237268518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45583.34958333334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>44876</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45428</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44853</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44383.50582175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45756.46568287037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         <v>45229.64980324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>45482.30600694445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45586.66560185186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45586</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45559.65309027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45457.65552083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>45462.37814814815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>45511.92854166667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45163</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45596.3479050926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>45672.64280092593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>45635</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>45621</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45485</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45569.53740740741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>45499.45645833333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45439</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45551.43978009259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>45551.44489583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>45551.45835648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45085.92733796296</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>45085.92752314815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>45534.52609953703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45551.36658564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>45803.61543981481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>45611.38663194444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45884.44443287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44482.9227662037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>45519.58368055556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>45554.42751157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45209</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44944.41868055556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45888.63672453703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>45178.92329861111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>45537.52844907407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>45887.56513888889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>45009</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>45812.41510416667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>45888.63680555556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45462.53011574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45890.68950231482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45441</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45426</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45432.65126157407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45545.66155092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>45037.35241898148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45558.57508101852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>45594</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45891.33292824074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>45541.45086805556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>45820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>45820.65319444444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45894.49003472222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45820</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45821.38677083333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>45824.58925925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45341</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>45824.60665509259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>45891.4024537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45604.42592592593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>45824.51351851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>45579.555625</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45824.7070949074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>45896.63652777778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>45896.65674768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>45895.44799768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>45895.61975694444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>45895.33680555555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45895.36784722222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45174.92231481482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45825.51212962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45898.58579861111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45901.38766203704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45678.45821759259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45902.36511574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45901.40425925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45544.62537037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45831.41347222222</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45903.42737268518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45832.3468287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45831.42825231481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45898</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45905.56924768518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45905.33974537037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45833.68674768518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>45833.59173611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45833.5987962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44440.9255324074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45908.46253472222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>45834</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45838.40053240741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45623.60524305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45623.6249537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45426</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45622.56356481482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45908.44136574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45734</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45623.59846064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45905.54627314815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45840.37125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44657.93243055556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45840.57563657407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>45840.65033564815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45838.3827662037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45842.64652777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45628.57732638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45842.59473379629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>45842.58432870371</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>45842.41072916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45841.621875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>45842.57553240741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>45603</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>45842.61521990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>45841.40692129629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14239,7 +14239,7 @@
         <v>45846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>45617</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>45912.61074074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>45846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>45244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45912.46197916667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>45019.65273148148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>45912.63228009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45912.63668981481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45849.53079861111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45916.38</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45161</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44284</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45855.54017361111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45202</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45825.33515046296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45858.7578125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45439.61412037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45620</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>45859.44616898148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45202</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45433.45328703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45273</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>45860.46461805556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>45614.5381712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45614.54942129629</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45917.47033564815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45922.61495370371</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>45644</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45461</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45271.61415509259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45919</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>45573.37309027778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45923.34506944445</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>45184</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>45157</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>45924</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>45923.34505787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>45614.66203703704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>45519.579375</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>45926.43288194444</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45870.32920138889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45925.36983796296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45870.60596064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45450.92833333334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45930.31474537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>45930.62128472222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45930.44105324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>45170</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>45930.38743055556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>45820.51743055556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>45173.69394675926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45485</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>44929.92520833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>45166</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45877.54078703704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45877.48462962963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45742</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45754.4134837963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45877.57869212963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45882.67741898148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45748.65944444444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45882.64671296296</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45881.57440972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>45485.35091435185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44357.9190162037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45936</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>45936.4525</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45936</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>45719</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45937</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45730.48341435185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>45938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45240</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45743</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>45257.50859953704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44867</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45727.6358912037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>45174.92260416667</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>45737.37833333333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45943.59478009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44445.92101851852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>45943.38590277778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>45943.38599537037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>45941.81591435185</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>45945.34512731482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>45090</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>45049.92737268518</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>44461.59241898148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45947</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45548.53137731482</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45947.55271990741</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>45947.53201388889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>45947</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>45947.58113425926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45947.53204861111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45950.64244212963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45947.55287037037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45947.55298611111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45947.55290509259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45947.57334490741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45947.59458333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45947.55268518518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44348.40371527777</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45952.42099537037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45951.63616898148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45952.34993055555</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45952.44921296297</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45954.41210648148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>45954</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45958.46975694445</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>45958.46978009259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>45957</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45699.3434837963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45742.65662037037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>45636</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45517.67284722222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45104</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45957.3443287037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45748</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45084.63084490741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45960.33998842593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45960.40697916667</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45016</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45372.92850694444</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45147</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45966</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45537.36001157408</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44556.8244212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45580.54452546296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45965.34484953704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45399.41329861111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45965.34479166667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>45966</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>45966.63467592592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>45569.44123842593</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45965.3446875</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45965.34471064815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44445.92061342593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>45966</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45966</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>45098</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45488.65130787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>45157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45156</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>45162</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45971.44827546296</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44510</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>45971.57378472222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>45425.40733796296</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45601.6375462963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45973.5503587963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>45610.5895949074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45974.48989583334</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45442</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>45973.54331018519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>45114</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>45579.55914351852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>45044</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>45614.55703703704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>45980.69892361111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>45602.38738425926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>45979.36954861111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>45980.64873842592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>45981.34552083333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>45981.34565972222</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>45981.34599537037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45462</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>45274</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45580.62873842593</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45986.39921296296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45541.36414351852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45085.92760416667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45527.46944444445</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>45561.59516203704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>45988</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45987.42810185185</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45604.36130787037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45989.44947916667</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>45989</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45989.57416666667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>45172</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>45511.92831018518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>45184</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>45604</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>45068.92681712963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>45573.65248842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45993</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45993.34475694445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>45993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>45993.34473379629</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45993.46925925926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45090.41349537037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>45407.63806712963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>46042.62834490741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>45594.43673611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>45625.49637731481</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45511.92890046296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>45511.92940972222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45999.52586805556</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45621.38637731481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>44594</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>46001.34715277778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45104</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>46001.34778935185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45547</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>46001.34512731482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>46001.36390046297</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45183.92153935185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45694.59717592593</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>46003.51107638889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>45665.65660879629</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45708.34431712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45754.41245370371</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45936</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45630.34612268519</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45574</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44670.54792824074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>46008.63635416667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>46008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45173</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45763.59434027778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45763.59438657408</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45198</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45177.50577546296</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45938</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>45208</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45187</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>45170</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>45182</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>45172</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>46055.42748842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45420.62534722222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>45173</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>46020.44150462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>46062.40667824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>46020.43430555556</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45163.92680555556</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45336.93761574074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45306.52886574074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45450</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>44945</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45310</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44867</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>44848</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45561</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>44872</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>46029.47375</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>45167</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>46029.59167824074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>46029.38585648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>46029.46365740741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>46031.3431712963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>46031.63582175926</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>45485.37736111111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>45478</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>46035.34439814815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>46035.34442129629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>46036.63644675926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>46035.49623842593</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>46077.66824074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>46035.50423611111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29935,7 +29935,7 @@
         <v>46035.6363425926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>46035.65710648148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>46035.47445601852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>44893.92828703704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45551.55501157408</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45540.59734953703</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>45974</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44441</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45462.45252314815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>45462</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>45604.42872685185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45891</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44999</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>44750.674375</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45336.93773148148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45336.93798611111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44904.44261574074</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>44435</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>44615</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31115,7 +31115,7 @@
         <v>45673.64859953704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>45190</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>45104</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>45525.78375</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44944.52116898148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45469.61785879629</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>45530.44527777778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>44914</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>44904.44421296296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45511.92836805555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45511.9284837963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>45511.92864583333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45607.38243055555</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45168</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45161</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45524.70659722222</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45156</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44524.9221412037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>45530.44016203703</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32238,7 +32238,7 @@
         <v>45516.83846064815</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44963.44527777778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>45670</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>45670.54126157407</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>45609.66168981481</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>45163</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45169</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>45754.41447916667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45736</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>45644.59050925926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>45608.48483796296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44867</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>45462.38275462963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>45462.38805555556</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>45667.5803125</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>45750.65398148148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>45474.43996527778</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>45084</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>45587.37518518518</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>45107</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>45573.64682870371</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>45300</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>45439</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33589,7 +33589,7 @@
         <v>45168</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>45614.63747685185</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>45160</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>45362.96918981482</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33879,7 +33879,7 @@
         <v>45163</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>45163</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33993,7 +33993,7 @@
         <v>45163</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>45406</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34107,7 +34107,7 @@
         <v>44417</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>45678.45819444444</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45429.40755787037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>45586.67015046296</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45644</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45748</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>45175.92457175926</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>45623.60400462963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45623.60804398148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45750.65299768518</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>45750.65483796296</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45470</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45540.3612037037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44958.92283564815</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44830.32160879629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45784</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>45170.92561342593</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45511.92706018518</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45362</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>45788.65594907408</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>45182</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45792.51623842592</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45183</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>45469.42753472222</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>45511.92907407408</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45132.38693287037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44943</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>45384</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>45155</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>45796.38513888889</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45796.68282407407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45798.65332175926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45799.55607638889</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45799.55508101852</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45799.55739583333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>45799.51130787037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
